--- a/data/trans_dic/P28B_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28B_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha alimentado peor respecto al último mes</t>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 16,06</t>
+          <t>7,64; 23,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,35</t>
+          <t>1,81; 10,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,57</t>
+          <t>2,71; 8,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,5</t>
+          <t>0,79; 4,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 10,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 17,52</t>
+          <t>13,03; 27,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,04</t>
+          <t>3,62; 11,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 10,77</t>
+          <t>3,94; 9,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,95</t>
+          <t>5,61; 11,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 14,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 15,49</t>
+          <t>12,18; 22,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,41</t>
+          <t>3,37; 9,47</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,36</t>
+          <t>4,02; 7,96</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,42</t>
+          <t>3,8; 7,43</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 11,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,11; 17,57</t>
+          <t>11,01; 21,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,47</t>
+          <t>7,85; 15,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,71</t>
+          <t>4,02; 9,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,23</t>
+          <t>3,47; 8,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,82; 24,8</t>
+          <t>17,47; 26,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 15,35</t>
+          <t>8,53; 17,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 12,74</t>
+          <t>6,96; 11,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,85</t>
+          <t>6,23; 11,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 17,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 20,23</t>
+          <t>15,09; 22,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,76</t>
+          <t>9,17; 14,64</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 9,49</t>
+          <t>6,07; 10,13</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,88</t>
+          <t>5,22; 9,02</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 13,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,35; 21,77</t>
+          <t>11,56; 22,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,26</t>
+          <t>4,25; 10,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 10,4</t>
+          <t>4,03; 9,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,34</t>
+          <t>3,56; 8,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 17,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 24,35</t>
+          <t>16,74; 27,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 13,61</t>
+          <t>7,81; 14,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 12,71</t>
+          <t>7,26; 12,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,85</t>
+          <t>6,05; 10,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 23,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 21,86</t>
+          <t>15,61; 23,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,86</t>
+          <t>7,01; 11,31</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,43</t>
+          <t>6,38; 10,2</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,14</t>
+          <t>5,46; 9,03</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 18,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11,61%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,31%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>8,87%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,8%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>19,47%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>10,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,02%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>13,59%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,3%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>7,65%</t>
-        </is>
-      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 17,04</t>
+          <t>12,25; 17,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,81</t>
+          <t>7,18; 12,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,33</t>
+          <t>3,99; 10,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,54; 21,47</t>
+          <t>15,95; 21,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 11,87</t>
+          <t>8,29; 13,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 10,99</t>
+          <t>8,4; 16,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 9,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 16,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 18,73</t>
+          <t>14,73; 18,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 10,82</t>
+          <t>8,47; 12,31</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 8,72</t>
+          <t>6,8; 11,73</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 12,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19,47%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,34%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13,04; 17,06</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,52; 10,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 7,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 6,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,63; 21,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,22; 12,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 10,9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 10,23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,91; 18,75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,76; 11,21</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 8,86</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 7,72</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32826</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17008</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26849</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15059</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>50600</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29030</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40252</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>73816</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>83426</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46038</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>67101</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>88875</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17294; 54164</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6140; 34863</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14211; 46441</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5739; 30884</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>34097; 72556</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15248; 49646</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25053; 59651</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50422; 102174</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59469; 111749</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25624; 72096</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>46633; 92303</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>61791; 120824</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>100349</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>103249</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>75530</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>88434</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>152872</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>121219</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>116196</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>126622</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>253221</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>224468</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>191727</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>215056</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>71647; 143076</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>72991; 146783</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48525; 114141</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>56002; 131257</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>124939; 189434</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>85271; 170857</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>85539; 146747</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>93757; 179739</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>206147; 300723</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>177058; 282607</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>147984; 246833</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>162912; 281560</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>73850</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49390</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51861</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>61949</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>113841</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>83319</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>93913</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>96967</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>187691</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>132709</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>145774</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>158915</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>52683; 100946</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30406; 74715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34097; 76872</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38877; 94981</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>89025; 144549</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>60081; 114200</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68325; 120934</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>70267; 126589</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>154117; 228557</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>104097; 167873</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>113998; 182288</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>122888; 203353</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>310970</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>140212</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>55408</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>383419</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>154156</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>88384</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>694389</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>294368</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>143792</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>258963; 364006</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>104674; 184314</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34308; 90920</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>333281; 440578</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>115822; 194013</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>63976; 122102</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>619286; 771702</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>241725; 351476</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>110243; 190151</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>517995</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>309859</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>209648</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>165441</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>700733</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>387724</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>338745</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>297405</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1218727</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>697583</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>548393</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>462846</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>449588; 588251</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>258879; 374776</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>168757; 267684</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>123627; 218621</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>634306; 774311</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>330751; 459762</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>286591; 388937</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>247875; 364910</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1121238; 1320918</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>615939; 787902</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>478223; 620737</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>399302; 540378</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>